--- a/MetroSystem/data/stations_HK.xlsx
+++ b/MetroSystem/data/stations_HK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\城大\课程\Year 3 Sem A\CS3343\CS3343_Group6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\城大\课程\Year 3 Sem A\CS3343\CS3343_Group6\MetroSystem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8C2C1F-9E51-4ED3-952A-853B18D30A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F440D4E-6D5D-4E1B-A43D-68D24AF2048D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15912" yWindow="1992" windowWidth="6192" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="272">
   <si>
     <t>English</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1021,6 +1021,14 @@
   </si>
   <si>
     <t>Lok Ma Chau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙田</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1348,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2330,10 +2338,10 @@
         <v>260</v>
       </c>
       <c r="B89" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
